--- a/프로젝트조편성.xlsx
+++ b/프로젝트조편성.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="750" yWindow="540" windowWidth="20175" windowHeight="9225"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="1차프로젝트" sheetId="1" r:id="rId4"/>
+    <sheet name="1차프로젝트" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -109,33 +112,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -143,7 +158,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -159,7 +174,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -173,45 +194,45 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -401,136 +422,144 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B4:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="4" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="2"/>
-      <c r="C13" s="5" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -538,6 +567,8 @@
   <mergeCells count="1">
     <mergeCell ref="B4:E4"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/프로젝트조편성.xlsx
+++ b/프로젝트조편성.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="540" windowWidth="20175" windowHeight="9225"/>
+    <workbookView xWindow="750" yWindow="540" windowWidth="20175" windowHeight="9225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1차프로젝트" sheetId="1" r:id="rId1"/>
+    <sheet name="2차웹프로젝트" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>자바1차 프로젝트조편성</t>
   </si>
@@ -107,6 +108,12 @@
   </si>
   <si>
     <t>김강산</t>
+  </si>
+  <si>
+    <t>자바2차 웹프로젝트조편성</t>
+  </si>
+  <si>
+    <t>팀장님</t>
   </si>
 </sst>
 </file>
@@ -121,29 +128,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="8"/>
@@ -152,8 +140,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,17 +174,29 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBC04"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -196,27 +219,155 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -432,134 +583,138 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B4:H13"/>
+  <dimension ref="B3:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="5" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+    <row r="3" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-      <c r="C13" s="4" t="s">
+    <row r="13" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -567,8 +722,167 @@
   <mergeCells count="1">
     <mergeCell ref="B4:E4"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="5" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>